--- a/data/trans_bre/P37-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P37-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.025011296185793</v>
+        <v>-2.997584356740897</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2720922300098982</v>
+        <v>0.3715281916516916</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8877676567877744</v>
+        <v>-0.8262323901752402</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.78539579747556</v>
+        <v>3.814283167278143</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1414530506769892</v>
+        <v>-0.1371113640393271</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0160273526731425</v>
+        <v>0.01773937498713118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.05653666324672309</v>
+        <v>-0.0482036963848531</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1240657266204383</v>
+        <v>0.1400733321999633</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.456790020409134</v>
+        <v>5.374947565160461</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.212859513407984</v>
+        <v>7.070448033448379</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.399028127227117</v>
+        <v>5.35402936918151</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14.10522425734795</v>
+        <v>13.79276194306265</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3241366041428281</v>
+        <v>0.3318933506370972</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.538874536345227</v>
+        <v>0.5100083851253571</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4095156237311121</v>
+        <v>0.4273930094185767</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6132612055695386</v>
+        <v>0.6153890764626677</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.136579497974686</v>
+        <v>-1.053789790241779</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.479432741581834</v>
+        <v>-3.638929288595555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6376547170823985</v>
+        <v>0.8475981054446545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.929118961358813</v>
+        <v>2.615871020600153</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.07429774330985786</v>
+        <v>-0.0698108913336508</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.174924364583956</v>
+        <v>-0.1827839321757557</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0362800629636794</v>
+        <v>0.05311249416588289</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.09324375958988003</v>
+        <v>0.08739606347607023</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.861504046442959</v>
+        <v>5.097349902767501</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.565107962619613</v>
+        <v>3.470035876129024</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.547744124512962</v>
+        <v>7.876547364054126</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10.49196679265902</v>
+        <v>10.17931922590522</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3925881206724729</v>
+        <v>0.3995561491076892</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2196457256980228</v>
+        <v>0.2126118382365253</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5832820846825072</v>
+        <v>0.6247659927498456</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4057982241360117</v>
+        <v>0.3915174159669906</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.8903992301202202</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.976670439089647</v>
+        <v>3.976670439089652</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1266244310650386</v>
@@ -849,7 +849,7 @@
         <v>-0.05500099286075515</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1192100130813965</v>
+        <v>0.1192100130813966</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.303936985708211</v>
+        <v>-1.542325738112249</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.949612831528458</v>
+        <v>-4.762214838606652</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.787269383360022</v>
+        <v>-4.579429730306954</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05541452995006185</v>
+        <v>-0.06982953892688697</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1020430940050278</v>
+        <v>-0.1223002586347534</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2333571902974579</v>
+        <v>-0.2201287508407699</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2689295193925892</v>
+        <v>-0.252619142109829</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.001233168920927222</v>
+        <v>-0.002553243689924755</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.428738323402727</v>
+        <v>4.170191639197472</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.791581207235182</v>
+        <v>2.861410220719995</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.830837098096968</v>
+        <v>2.9926400028305</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.833045267433379</v>
+        <v>7.855133725845132</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4466938840974194</v>
+        <v>0.4283659239120669</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1641202061644879</v>
+        <v>0.1616918059529246</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1929286303361363</v>
+        <v>0.214660177828028</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2488501311390631</v>
+        <v>0.249300061112123</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.87053671712512</v>
+        <v>-5.294703379752637</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.57976009797575</v>
+        <v>-6.486635259297062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-5.44850062022622</v>
+        <v>-5.554668015178922</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.08281181794685</v>
+        <v>-1.715290124624768</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.316856770171643</v>
+        <v>-0.3400671571666045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3041536040064301</v>
+        <v>-0.2958438300191991</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2536027169950969</v>
+        <v>-0.2554685477032116</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05683226355878718</v>
+        <v>-0.04740891709932446</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.4042418297551</v>
+        <v>5.077651313463232</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.979204762062038</v>
+        <v>3.810944788257153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.716810650966352</v>
+        <v>4.685898822830092</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.489588838328091</v>
+        <v>6.088416688816706</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5055155199670802</v>
+        <v>0.4804936698124747</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2500887808116624</v>
+        <v>0.2448060513833556</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2797247784612158</v>
+        <v>0.2714944649888172</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2076959535789755</v>
+        <v>0.1962201170273215</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4197714845032987</v>
+        <v>0.3869487267928617</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.285726052108365</v>
+        <v>-1.278754472316012</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.04607659379334279</v>
+        <v>-0.1745901253555807</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.69456950774106</v>
+        <v>2.890600509590219</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.02941764789211911</v>
+        <v>0.0252165683584599</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.06741892011158565</v>
+        <v>-0.06844638542510334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.006257550335053984</v>
+        <v>-0.0105297270874222</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.08562712977731912</v>
+        <v>0.08926846129788142</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.848974079975979</v>
+        <v>3.958375522820253</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.710540231025871</v>
+        <v>2.606829433964404</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.565514016771312</v>
+        <v>3.489529545378843</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.877546676363114</v>
+        <v>6.996773950594652</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2991497364921472</v>
+        <v>0.3035998910654101</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1626433352927882</v>
+        <v>0.1569206105609356</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2340373369330527</v>
+        <v>0.2352683510627842</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2312576869688345</v>
+        <v>0.2327344431242338</v>
       </c>
     </row>
     <row r="19">
